--- a/input/l2/WHO-EmCare-CoreDataElements.xlsx
+++ b/input/l2/WHO-EmCare-CoreDataElements.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="OVERVIEW" sheetId="1" r:id="rId1"/>
@@ -9363,7 +9363,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="437">
+  <cellXfs count="438">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -10751,6 +10751,7 @@
     <xf numFmtId="0" fontId="5" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Excel Built-in Good" xfId="4"/>
@@ -25129,11 +25130,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="BA29" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="BE34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BH31" sqref="BH31"/>
+      <selection pane="bottomRight" activeCell="BH42" sqref="BH42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -30200,8 +30201,8 @@
         <v>863</v>
       </c>
       <c r="BG30" s="174"/>
-      <c r="BH30" s="434" t="s">
-        <v>1060</v>
+      <c r="BH30" s="437" t="s">
+        <v>731</v>
       </c>
       <c r="BI30" s="273" t="s">
         <v>218</v>
@@ -30830,8 +30831,8 @@
         <v>863</v>
       </c>
       <c r="BG34" s="243"/>
-      <c r="BH34" s="434" t="s">
-        <v>1060</v>
+      <c r="BH34" s="437" t="s">
+        <v>731</v>
       </c>
       <c r="BI34" s="273" t="s">
         <v>218</v>
@@ -31455,6 +31456,8 @@
     <hyperlink ref="AA34" r:id="rId107" location="/http%3A%2F%2Fid.who.int%2Ficd%2Fentity%2F2083324835"/>
     <hyperlink ref="AF34" r:id="rId108" location="/P90"/>
     <hyperlink ref="AP34" r:id="rId109"/>
+    <hyperlink ref="BH30" r:id="rId110"/>
+    <hyperlink ref="BH34" r:id="rId111"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -31462,7 +31465,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId110"/>
+  <legacyDrawing r:id="rId112"/>
 </worksheet>
 </file>
 
@@ -31471,10 +31474,10 @@
   <dimension ref="A1:AMJ27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="BD5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="BD23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BD21" sqref="BD21"/>
+      <selection pane="bottomRight" activeCell="BG26" sqref="BG26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -32005,8 +32008,8 @@
         <v>63</v>
       </c>
       <c r="BF4" s="174"/>
-      <c r="BG4" s="434" t="s">
-        <v>1060</v>
+      <c r="BG4" s="437" t="s">
+        <v>731</v>
       </c>
       <c r="BH4" s="273" t="s">
         <v>218</v>
@@ -32195,8 +32198,8 @@
         <v>240</v>
       </c>
       <c r="BF5" s="347"/>
-      <c r="BG5" s="434" t="s">
-        <v>1060</v>
+      <c r="BG5" s="437" t="s">
+        <v>731</v>
       </c>
       <c r="BH5" s="349" t="s">
         <v>218</v>
@@ -32387,8 +32390,8 @@
         <v>63</v>
       </c>
       <c r="BF6" s="174"/>
-      <c r="BG6" s="434" t="s">
-        <v>1060</v>
+      <c r="BG6" s="437" t="s">
+        <v>731</v>
       </c>
       <c r="BH6" s="273" t="s">
         <v>218</v>
@@ -32579,8 +32582,8 @@
         <v>240</v>
       </c>
       <c r="BF7" s="174"/>
-      <c r="BG7" s="434" t="s">
-        <v>1060</v>
+      <c r="BG7" s="437" t="s">
+        <v>731</v>
       </c>
       <c r="BH7" s="273" t="s">
         <v>218</v>
@@ -32771,8 +32774,8 @@
         <v>240</v>
       </c>
       <c r="BF8" s="174"/>
-      <c r="BG8" s="434" t="s">
-        <v>1060</v>
+      <c r="BG8" s="437" t="s">
+        <v>731</v>
       </c>
       <c r="BH8" s="273" t="s">
         <v>218</v>
@@ -32963,8 +32966,8 @@
         <v>63</v>
       </c>
       <c r="BF9" s="174"/>
-      <c r="BG9" s="434" t="s">
-        <v>1060</v>
+      <c r="BG9" s="437" t="s">
+        <v>731</v>
       </c>
       <c r="BH9" s="273" t="s">
         <v>218</v>
@@ -32992,7 +32995,7 @@
       <c r="BS9" s="174"/>
       <c r="BT9" s="174"/>
     </row>
-    <row r="10" spans="1:72" s="351" customFormat="1" ht="60">
+    <row r="10" spans="1:72" s="351" customFormat="1" ht="51">
       <c r="A10" s="343" t="s">
         <v>1045</v>
       </c>
@@ -33155,8 +33158,8 @@
         <v>240</v>
       </c>
       <c r="BF10" s="347"/>
-      <c r="BG10" s="434" t="s">
-        <v>1060</v>
+      <c r="BG10" s="437" t="s">
+        <v>731</v>
       </c>
       <c r="BH10" s="349" t="s">
         <v>218</v>
@@ -33351,8 +33354,8 @@
         <v>63</v>
       </c>
       <c r="BF11" s="174"/>
-      <c r="BG11" s="434" t="s">
-        <v>1060</v>
+      <c r="BG11" s="437" t="s">
+        <v>731</v>
       </c>
       <c r="BH11" s="273" t="s">
         <v>218</v>
@@ -33549,8 +33552,8 @@
         <v>63</v>
       </c>
       <c r="BF12" s="174"/>
-      <c r="BG12" s="434" t="s">
-        <v>1060</v>
+      <c r="BG12" s="437" t="s">
+        <v>731</v>
       </c>
       <c r="BH12" s="273" t="s">
         <v>218</v>
@@ -33578,7 +33581,7 @@
       <c r="BS12" s="174"/>
       <c r="BT12" s="174"/>
     </row>
-    <row r="13" spans="1:72" s="351" customFormat="1" ht="60">
+    <row r="13" spans="1:72" s="351" customFormat="1" ht="51">
       <c r="A13" s="343" t="s">
         <v>1045</v>
       </c>
@@ -33739,8 +33742,8 @@
         <v>240</v>
       </c>
       <c r="BF13" s="347"/>
-      <c r="BG13" s="434" t="s">
-        <v>1060</v>
+      <c r="BG13" s="437" t="s">
+        <v>731</v>
       </c>
       <c r="BH13" s="349" t="s">
         <v>218</v>
@@ -33766,7 +33769,7 @@
       <c r="BS13" s="347"/>
       <c r="BT13" s="347"/>
     </row>
-    <row r="14" spans="1:72" s="351" customFormat="1" ht="60">
+    <row r="14" spans="1:72" s="351" customFormat="1" ht="51">
       <c r="A14" s="343" t="s">
         <v>1045</v>
       </c>
@@ -33929,8 +33932,8 @@
         <v>240</v>
       </c>
       <c r="BF14" s="347"/>
-      <c r="BG14" s="434" t="s">
-        <v>1060</v>
+      <c r="BG14" s="437" t="s">
+        <v>731</v>
       </c>
       <c r="BH14" s="349" t="s">
         <v>218</v>
@@ -34125,8 +34128,8 @@
         <v>63</v>
       </c>
       <c r="BF15" s="174"/>
-      <c r="BG15" s="434" t="s">
-        <v>1060</v>
+      <c r="BG15" s="437" t="s">
+        <v>731</v>
       </c>
       <c r="BH15" s="273" t="s">
         <v>218</v>
@@ -34154,7 +34157,7 @@
       <c r="BS15" s="174"/>
       <c r="BT15" s="174"/>
     </row>
-    <row r="16" spans="1:72" s="351" customFormat="1" ht="60">
+    <row r="16" spans="1:72" s="351" customFormat="1" ht="51">
       <c r="A16" s="343" t="s">
         <v>1045</v>
       </c>
@@ -34317,8 +34320,8 @@
         <v>240</v>
       </c>
       <c r="BF16" s="347"/>
-      <c r="BG16" s="434" t="s">
-        <v>1060</v>
+      <c r="BG16" s="437" t="s">
+        <v>731</v>
       </c>
       <c r="BH16" s="349" t="s">
         <v>218</v>
@@ -34509,8 +34512,8 @@
         <v>1177</v>
       </c>
       <c r="BF17" s="174"/>
-      <c r="BG17" s="434" t="s">
-        <v>1060</v>
+      <c r="BG17" s="437" t="s">
+        <v>731</v>
       </c>
       <c r="BH17" s="273" t="s">
         <v>218</v>
@@ -34703,8 +34706,8 @@
         <v>1177</v>
       </c>
       <c r="BF18" s="174"/>
-      <c r="BG18" s="434" t="s">
-        <v>1060</v>
+      <c r="BG18" s="437" t="s">
+        <v>731</v>
       </c>
       <c r="BH18" s="273" t="s">
         <v>218</v>
@@ -34897,8 +34900,8 @@
         <v>1177</v>
       </c>
       <c r="BF19" s="174"/>
-      <c r="BG19" s="434" t="s">
-        <v>1060</v>
+      <c r="BG19" s="437" t="s">
+        <v>731</v>
       </c>
       <c r="BH19" s="273" t="s">
         <v>218</v>
@@ -35091,8 +35094,8 @@
         <v>63</v>
       </c>
       <c r="BF20" s="174"/>
-      <c r="BG20" s="434" t="s">
-        <v>1060</v>
+      <c r="BG20" s="437" t="s">
+        <v>731</v>
       </c>
       <c r="BH20" s="273" t="s">
         <v>218</v>
@@ -35283,8 +35286,8 @@
         <v>863</v>
       </c>
       <c r="BF21" s="290"/>
-      <c r="BG21" s="434" t="s">
-        <v>1060</v>
+      <c r="BG21" s="437" t="s">
+        <v>731</v>
       </c>
       <c r="BH21" s="293" t="s">
         <v>218</v>
@@ -36135,8 +36138,8 @@
         <v>285</v>
       </c>
       <c r="BF26" s="174"/>
-      <c r="BG26" s="434" t="s">
-        <v>1060</v>
+      <c r="BG26" s="437" t="s">
+        <v>731</v>
       </c>
       <c r="BH26" s="273" t="s">
         <v>218</v>
@@ -36197,6 +36200,9 @@
     <hyperlink ref="AJ26" r:id="rId26"/>
     <hyperlink ref="AO26" r:id="rId27"/>
     <hyperlink ref="BP4" r:id="rId28"/>
+    <hyperlink ref="BG4" r:id="rId29"/>
+    <hyperlink ref="BG5:BG21" r:id="rId30" display="http://fhir.org/guides/who/core/StructureDefinition/who-observation"/>
+    <hyperlink ref="BG26" r:id="rId31"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -36204,8 +36210,8 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId29"/>
-  <legacyDrawing r:id="rId30"/>
+  <drawing r:id="rId32"/>
+  <legacyDrawing r:id="rId33"/>
 </worksheet>
 </file>
 
@@ -36213,7 +36219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
